--- a/map350_040122_X.xlsx
+++ b/map350_040122_X.xlsx
@@ -293,7 +293,7 @@
   <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
@@ -13493,7 +13493,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>6</v>
